--- a/SleepData.xlsx
+++ b/SleepData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vansavage/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyucao/Documents/Research/sleep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F928DC-A378-F54D-AEDC-BD3774035557}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D38E4B5-EA08-1B4A-800A-E4C6C488D321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{2C29FE64-A7B0-4740-B71A-07C32D0FE653}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="7" xr2:uid="{2C29FE64-A7B0-4740-B71A-07C32D0FE653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sleep" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="white matter" sheetId="4" r:id="rId7"/>
     <sheet name="OtherSpecies" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Rat</t>
-  </si>
-  <si>
-    <t>Pig</t>
   </si>
   <si>
     <t xml:space="preserve">G. W. Vogel, P. Feng, G. G. Kinney, Ontogeny of REM sleep in rats: Possible implications for endogenous depression. Physiol. Behav. 68, 453–461 (2000). </t>
@@ -132,12 +129,15 @@
   <si>
     <t>Cerebral Metabolic Rate (10 mols of glucose per minute)</t>
   </si>
+  <si>
+    <t>Guinea pig</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,25 +512,25 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>0.14660000000000001</v>
       </c>
@@ -542,7 +542,7 @@
         <v>16.241399999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>0.35410000000000003</v>
       </c>
@@ -554,7 +554,7 @@
         <v>12.302</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>0.51239999999999997</v>
       </c>
@@ -566,7 +566,7 @@
         <v>15.9893</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>0.65029999999999999</v>
       </c>
@@ -578,7 +578,7 @@
         <v>14.403499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>0.85609999999999997</v>
       </c>
@@ -590,7 +590,7 @@
         <v>14.279</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>1.6020000000000001</v>
       </c>
@@ -602,7 +602,7 @@
         <v>13.8771</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4">
         <v>1.2107000000000001</v>
       </c>
@@ -614,7 +614,7 @@
         <v>13.5753</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>1.3811</v>
       </c>
@@ -626,7 +626,7 @@
         <v>15.6334</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>1.5657000000000001</v>
       </c>
@@ -638,7 +638,7 @@
         <v>12.108599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>1.7241</v>
       </c>
@@ -650,7 +650,7 @@
         <v>15.414400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>1.8956999999999999</v>
       </c>
@@ -662,7 +662,7 @@
         <v>15.114100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4">
         <v>2.1629999999999998</v>
       </c>
@@ -674,7 +674,7 @@
         <v>13.6692</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>2.3972000000000002</v>
       </c>
@@ -686,7 +686,7 @@
         <v>14.006399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4">
         <v>2.6623000000000001</v>
       </c>
@@ -698,7 +698,7 @@
         <v>13.4102</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4">
         <v>2.8980999999999999</v>
       </c>
@@ -710,7 +710,7 @@
         <v>14.299899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4">
         <v>3.2339000000000002</v>
       </c>
@@ -722,7 +722,7 @@
         <v>14.2338</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="4">
         <v>3.6193</v>
       </c>
@@ -734,7 +734,7 @@
         <v>12.6061</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="4">
         <v>4.0595999999999997</v>
       </c>
@@ -746,7 +746,7 @@
         <v>12.8485</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="4">
         <v>4.4725000000000001</v>
       </c>
@@ -758,7 +758,7 @@
         <v>13.2294</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="4">
         <v>4.8578000000000001</v>
       </c>
@@ -770,7 +770,7 @@
         <v>12.9177</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="4">
         <v>5.2981999999999996</v>
       </c>
@@ -782,7 +782,7 @@
         <v>13.0909</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="4">
         <v>5.7385000000000002</v>
       </c>
@@ -794,7 +794,7 @@
         <v>12.883100000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="4">
         <v>6.2328000000000001</v>
       </c>
@@ -806,7 +806,7 @@
         <v>11.847300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="4">
         <v>6.6539000000000001</v>
       </c>
@@ -818,7 +818,7 @@
         <v>13.026199999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="4">
         <v>7.0968999999999998</v>
       </c>
@@ -830,7 +830,7 @@
         <v>13.411199999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="4">
         <v>7.5029000000000003</v>
       </c>
@@ -842,7 +842,7 @@
         <v>12.414400000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="4">
         <v>7.9195000000000002</v>
       </c>
@@ -854,7 +854,7 @@
         <v>12.9717</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="4">
         <v>8.3587000000000007</v>
       </c>
@@ -866,7 +866,7 @@
         <v>12.8041</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="4">
         <v>8.8262</v>
       </c>
@@ -878,7 +878,7 @@
         <v>12.740399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4">
         <v>9.15</v>
       </c>
@@ -890,7 +890,7 @@
         <v>13.9383</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4">
         <v>9.65</v>
       </c>
@@ -902,7 +902,7 @@
         <v>12.3879</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="4">
         <v>10.216699999999999</v>
       </c>
@@ -914,7 +914,7 @@
         <v>13.155200000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="4">
         <v>10.75</v>
       </c>
@@ -926,7 +926,7 @@
         <v>12.781000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="4">
         <v>11.183299999999999</v>
       </c>
@@ -938,7 +938,7 @@
         <v>12.613099999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="4">
         <v>11.716699999999999</v>
       </c>
@@ -950,7 +950,7 @@
         <v>12.4117</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="4">
         <v>12.4031</v>
       </c>
@@ -962,7 +962,7 @@
         <v>11.2081</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="4">
         <v>13.8058</v>
       </c>
@@ -974,7 +974,7 @@
         <v>13.6259</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="4">
         <v>15.371600000000001</v>
       </c>
@@ -986,7 +986,7 @@
         <v>12.7683</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="4">
         <v>16.924700000000001</v>
       </c>
@@ -998,7 +998,7 @@
         <v>12.5314</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="4">
         <v>18.370699999999999</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>12.811400000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="4">
         <v>19.9239</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>12.5745</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="4">
         <v>21.4757</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>12.4064</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="4">
         <v>22.813099999999999</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>13.272500000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="4">
         <v>24.9724</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>12.5352</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="4">
         <v>26.6601</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>11.982699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="4">
         <v>28.357500000000002</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>11.9482</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="4">
         <v>30.0563</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>11.982699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="4">
         <v>31.9802</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>11.9482</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="4">
         <v>33.6905</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>12.604200000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="4">
         <v>35.372500000000002</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>11.741</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="4">
         <v>50.045499999999997</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>11.861700000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="4">
         <v>54.136400000000002</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>11.654199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="4">
         <v>58.5</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>11.3775</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="4">
         <v>60.679600000000001</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>11.032500000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="4">
         <v>62.712800000000001</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>9.1301000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="4">
         <v>65.006900000000002</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>8.7781000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="4">
         <v>67.019900000000007</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>10.4626</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="4">
         <v>69.175899999999999</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>10.697800000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="4">
         <v>71.205500000000001</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>9.4161000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="4">
         <v>72.755499999999998</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>10.582100000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="4">
         <v>74.462299999999999</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>9.2680000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="4">
         <v>76.376599999999996</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>8.8529999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="4">
         <v>78.062100000000001</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>8.6800999999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="4">
         <v>79.731999999999999</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>9.3371999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="4">
         <v>81.307900000000004</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>9.0259</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="4">
         <v>83.088099999999997</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>9.7866999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="4">
         <v>84.828699999999998</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>10.414</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="4">
         <v>86.275499999999994</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>9.5577000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="4">
         <v>87.809799999999996</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>9.7741000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="4">
         <v>89.161199999999994</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>8.8481000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="4">
         <v>90.6036</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>8.5452999999999992</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="4">
         <v>92.230599999999995</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>9.1770999999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="4">
         <v>93.6678</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>9.5312000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="4">
         <v>95.016400000000004</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>8.9510000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="4">
         <v>96.430999999999997</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>10.0937</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="4">
         <v>97.741200000000006</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>9.1264000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="4">
         <v>99.1447</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>9.6507000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="4">
         <v>100.4554</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>8.7873000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="4">
         <v>101.85590000000001</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>8.5139999999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="4">
         <v>103.1721</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>9.1420999999999992</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="4">
         <v>104.6618</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>9.3196999999999992</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="4">
         <v>105.88979999999999</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>9.8088999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="4">
         <v>107.2899</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>9.4314999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="4">
         <v>108.7732</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>9.8580000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="4">
         <v>110.0655</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>9.2393999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="4">
         <v>111.6673</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>9.3821999999999992</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="4">
         <v>113.1583</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>8.6603999999999992</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="4">
         <v>114.7544</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>8.3537999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="4">
         <v>116.26309999999999</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>9.0496999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="4">
         <v>117.76519999999999</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>9.2270000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="4">
         <v>119.358</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>8.6437000000000008</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="4">
         <v>120.6395</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>9.6088000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="4">
         <v>122.1255</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>9.1968999999999994</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="4">
         <v>123.3468</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>8.5068000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="4">
         <v>124.83329999999999</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>8.1643000000000008</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="4">
         <v>125.98269999999999</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>9.6242000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="4">
         <v>127.2923</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>9.0383999999999993</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="4">
         <v>128.61150000000001</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>9.7706</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="4">
         <v>130.00309999999999</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>8.4220000000000006</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="4">
         <v>131.18960000000001</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>8.9802999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="4">
         <v>132.95840000000001</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>9.3346999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="4">
         <v>135.13399999999999</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>8.5760000000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="4">
         <v>136.9367</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>7.9551999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="4">
         <v>138.83750000000001</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>9.6020000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="4">
         <v>140.6909</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>8.2149000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="4" t="s">
         <v>5</v>
       </c>
@@ -1808,16 +1808,16 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>2.9596773557058635</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>0.5</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>5.4051439026106536</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>9.3421662546353534</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>12.510296540362438</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>15.03780241935484</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>4.5</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>18.972490660409399</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>6.5</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>22.345070914553204</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>8.5</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>27.1240526525728</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>11</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>39.114232478142469</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>14</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>48.272675575774805</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="3">
         <v>17</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>56.437560503388184</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="3">
         <v>20</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>59.328516787080318</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3">
         <v>26</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>60.272368478119446</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>35.5</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>64.731597254865093</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>45.5</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>62.895989745467851</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>53</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>66.830684446193956</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>58</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>65.126896077757593</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>63</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>64.807560473998635</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>68</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>64.05883502736512</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>73</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>62.017493820117892</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>78</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>61.617782966097572</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>83</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>58.409983822509822</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,7 +2086,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="72" style="3" customWidth="1"/>
@@ -2096,21 +2096,21 @@
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1.7600000000000001E-2</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>5.777247567062135</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>0.29449999999999998</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>8.1954227347600774</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>0.3009</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>9.1987535809252883</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>0.123</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>8.2069522225611706</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>0.58379999999999999</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>14.126868688584246</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>0.43159999999999998</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>17.148777756028839</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>0.96779999999999999</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>25.717621643767231</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>1.4668000000000001</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>41.358155781231318</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>1.4988999999999999</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>23.456152090894687</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>1.5264</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>31.970935805252214</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>3.3429000000000002</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>67.578579638154878</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>3.5346000000000002</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>71.243539315317534</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>5.5793999999999997</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>72.864016164695798</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>6.4055999999999997</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>76.540053893137056</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>7.0406000000000004</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>75.999378314122893</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>7.0373999999999999</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>74.794993506639003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>6.6756000000000002</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>58.442049290144844</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>7.1360000000000001</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>60.618916130811783</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>7.5406000000000004</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>58.772449073575814</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>8.5861000000000001</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>58.601645925993694</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>8.5382999999999996</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>74.933965079477261</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>8.3184000000000005</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>77.718843140588888</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>9.2767999999999997</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>62.542665383621717</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>9.6013999999999999</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>65.513971033185925</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>9.8092000000000006</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>58.177570210324191</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>12.001099999999999</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>62.342818226590673</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>13.492699999999999</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>57.92117745186507</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>15.128299999999999</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>56.190054415682724</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -2516,11 +2516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1554B9C-9391-7540-80D9-D177A5D5C324}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" style="3" customWidth="1"/>
@@ -2529,24 +2529,24 @@
     <col min="5" max="5" width="41.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>3.7586416367524893</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>0.10100000000000001</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>4.5839723182092396</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>0.34949999999999998</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>6.5589895902503033</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>0.68379999999999996</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>9.0584938075510504</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>0.52129999999999999</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>11.721916889099544</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>0.77200000000000002</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>12.58904703287542</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>1.0251999999999999</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>13.266979054505883</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2683,21 +2683,21 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>0.58699999999999997</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>0.68899999999999995</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>0.73399999999999999</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>0.78600000000000003</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>0.81699999999999995</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>0.81299999999999994</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>0.84399999999999997</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>0.84499999999999997</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>0.92600000000000005</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>0.97799999999999998</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>1.1040000000000001</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>1.018</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>0.93799999999999994</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>0.90800000000000003</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>1.1819999999999999</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>1.175</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
         <v>1.109</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>1.1259999999999999</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
         <v>0.58199999999999996</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
         <v>0.59599999999999997</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
         <v>0.58199999999999996</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>0.60399999999999998</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
         <v>0.624</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>0.78800000000000003</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>0.72599999999999998</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>0.74399999999999999</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>0.75600000000000001</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>0.77</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
         <v>0.86399999999999999</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
         <v>0.872</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
         <v>0.88800000000000001</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3">
         <v>0.97199999999999998</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
@@ -2971,7 +2971,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -2980,21 +2980,21 @@
     <col min="5" max="5" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>2.1899999999999999E-2</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>7.9270186619</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>0.33329999999999999</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>5.6185929331000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>1.1918</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>3.8739269593999994</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>2.5</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>3.0097898048</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2.1775965822000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1.9362609040999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>11.5</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>1.8437810573999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>16</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1.7045874125999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>24.5</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1.6803075629999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>39</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>1.3071756984</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>60</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0.88423259649999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>77.5</v>
       </c>
@@ -3162,17 +3162,17 @@
         <v>0.78787439640000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3186,21 +3186,21 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>8.9166666666666672E-2</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>0.34</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>50.89</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>0.23083333333333333</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>60.88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>0.4916666666666667</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>0.64416666666666667</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>133.72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>0.89416666666666667</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>180.62629999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>0.95916666666666661</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>160.66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>1.0683333333333334</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>163.66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>0.82666666666666666</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>314.35000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>1.2308333333333332</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>234.51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>1.405</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>232.51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>1.4708333333333332</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>232.51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>1.5683333333333334</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>261.45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>2.395</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>317.32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>2.4833333333333334</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>265.42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>3.0708333333333333</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>304.33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
         <v>3.7466666666666666</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>301.32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>3.9975000000000001</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>281.35000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
         <v>4.6716666666666669</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>340.22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
         <v>5.4224999999999994</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>411.07</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
         <v>6.5025000000000004</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>299.26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>7.3516666666666666</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>349.14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
         <v>8.5833333333333339</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>311.18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>9.2575000000000003</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>340.11</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>9.6716666666666669</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>353.07</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>9.9883333333333333</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>305.16000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>10.086666666666668</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>297.17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>10.487499999999999</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>421.92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -3438,11 +3438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041306F3-B38E-BB40-B9B7-CD63A02410AD}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="33.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -3450,27 +3450,27 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>24.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>14</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>15</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>30</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3619,7 +3619,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3628,26 +3628,26 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>54.93</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>52.36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>52.36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>44.86</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>43.71</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>41.54</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>42.31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>41.19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>35.86</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>34.01</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>29.68</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -3831,42 +3831,42 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>14</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>28</v>
       </c>
@@ -3910,44 +3910,44 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
